--- a/DirsAccessFromExcele/ExcelSample/ПраваДоступаОбразец.xlsx
+++ b/DirsAccessFromExcele/ExcelSample/ПраваДоступаОбразец.xlsx
@@ -53,12 +53,6 @@
     <t>9_Рабочие (WIP)</t>
   </si>
   <si>
-    <t>10_СтадияП (Shared+Published)</t>
-  </si>
-  <si>
-    <t>11_СтадияР (Shared+Published)</t>
-  </si>
-  <si>
     <t>12_Архив</t>
   </si>
   <si>
@@ -72,7 +66,143 @@
   </si>
   <si>
     <r>
-      <t>10_СтадияП (Shared+Published)\PDF (Shared)\</t>
+      <t>3_Корреспонденция\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.1_Входящие письма</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3_Корреспонденция\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.2_Исходящие письма</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9.1_Стадия П</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.1_Стадия П\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BIM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.1_Стадия П\BIM\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>АР</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.1_Стадия П\BIM\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ВК</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.1_Стадия П\BIM\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ГП</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.1_Стадия П\BIM\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>КР</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.1_Стадия П\BIM\</t>
     </r>
     <r>
       <rPr>
@@ -89,36 +219,308 @@
   </si>
   <si>
     <r>
-      <t>3_Корреспонденция\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.1_Входящие письма</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3_Корреспонденция\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.2_Исходящие письма</t>
+      <t>9_Рабочие (WIP)\9.1_Стадия П\BIM\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>СС</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.1_Стадия П\BIM\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ЭМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.1_Стадия П\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CAD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.1_Стадия П\CAD\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>АР</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.1_Стадия П\CAD\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ВК</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.1_Стадия П\CAD\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ГП</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.1_Стадия П\CAD\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>КР</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.1_Стадия П\CAD\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ОВ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.1_Стадия П\CAD\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>СС</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.1_Стадия П\CAD\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ЭМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.1_Стадия П\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PDF</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.1_Стадия П\PDF\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>АР</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.1_Стадия П\PDF\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ВК</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.1_Стадия П\PDF\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ГП</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.1_Стадия П\PDF\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>КР</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.1_Стадия П\PDF\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ОВ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.1_Стадия П\PDF\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>СС</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.1_Стадия П\PDF\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ЭМ</t>
     </r>
   </si>
   <si>
@@ -135,12 +537,12 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>9.1_Стадия П</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.1_Стадия П\</t>
+      <t>9.2_Стадия Р</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.2_Стадия Р\</t>
     </r>
     <r>
       <rPr>
@@ -157,126 +559,7 @@
   </si>
   <si>
     <r>
-      <t>9_Рабочие (WIP)\9.1_Стадия П\BIM\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>АР</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.1_Стадия П\BIM\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ВК</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.1_Стадия П\BIM\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ГП</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.1_Стадия П\BIM\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>КР</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.1_Стадия П\BIM\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ОВ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.1_Стадия П\BIM\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>СС</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.1_Стадия П\BIM\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ЭМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.1_Стадия П\</t>
+      <t>9_Рабочие (WIP)\9.2_Стадия Р\</t>
     </r>
     <r>
       <rPr>
@@ -293,126 +576,109 @@
   </si>
   <si>
     <r>
-      <t>9_Рабочие (WIP)\9.1_Стадия П\CAD\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>АР</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.1_Стадия П\CAD\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ВК</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.1_Стадия П\CAD\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ГП</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.1_Стадия П\CAD\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>КР</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.1_Стадия П\CAD\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ОВ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.1_Стадия П\CAD\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>СС</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.1_Стадия П\CAD\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ЭМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.1_Стадия П\</t>
+      <t>9_Рабочие (WIP)\9.2_Стадия Р\BIM\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>АС</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.2_Стадия Р\BIM\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>КЖ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.2_Стадия Р\BIM\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>КМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.2_Стадия Р\CAD\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>АС</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.2_Стадия Р\CAD\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>КЖ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.2_Стадия Р\CAD\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>КМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9_Рабочие (WIP)\9.2_Стадия Р\</t>
     </r>
     <r>
       <rPr>
@@ -429,177 +695,7 @@
   </si>
   <si>
     <r>
-      <t>9_Рабочие (WIP)\9.1_Стадия П\PDF\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>АР</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.1_Стадия П\PDF\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ВК</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.1_Стадия П\PDF\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ГП</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.1_Стадия П\PDF\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>КР</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.1_Стадия П\PDF\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ОВ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.1_Стадия П\PDF\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>СС</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.1_Стадия П\PDF\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ЭМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9.2_Стадия Р</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.2_Стадия Р\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BIM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.2_Стадия Р\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CAD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.2_Стадия Р\BIM\</t>
+      <t>9_Рабочие (WIP)\9.2_Стадия Р\PDF\</t>
     </r>
     <r>
       <rPr>
@@ -616,7 +712,7 @@
   </si>
   <si>
     <r>
-      <t>9_Рабочие (WIP)\9.2_Стадия Р\BIM\</t>
+      <t>9_Рабочие (WIP)\9.2_Стадия Р\PDF\</t>
     </r>
     <r>
       <rPr>
@@ -633,7 +729,7 @@
   </si>
   <si>
     <r>
-      <t>9_Рабочие (WIP)\9.2_Стадия Р\BIM\</t>
+      <t>9_Рабочие (WIP)\9.2_Стадия Р\PDF\</t>
     </r>
     <r>
       <rPr>
@@ -650,261 +746,6 @@
   </si>
   <si>
     <r>
-      <t>9_Рабочие (WIP)\9.2_Стадия Р\CAD\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>АС</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.2_Стадия Р\CAD\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>КЖ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.2_Стадия Р\CAD\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>КМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.2_Стадия Р\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PDF</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.2_Стадия Р\PDF\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>АС</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.2_Стадия Р\PDF\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>КЖ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9_Рабочие (WIP)\9.2_Стадия Р\PDF\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>КМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10_СтадияП (Shared+Published)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BIM (Shared)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10_СтадияП (Shared+Published)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CAD (Shared)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10_СтадияП (Shared+Published)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PDF (Shared)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10_СтадияП (Shared+Published)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Экспертиза (Published)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11_СтадияР (Shared+Published)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BIM (Shared)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11_СтадияР (Shared+Published)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CAD (Shared)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11_СтадияР (Shared+Published)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PDF (Shared)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11_СтадияР (Shared+Published)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Выдано (Published)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>13_Библиотека проекта\</t>
     </r>
     <r>
@@ -986,499 +827,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>DesignReview</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11_СтадияР (Shared+Published)\PDF (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>КМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11_СтадияР (Shared+Published)\PDF (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>КЖ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11_СтадияР (Shared+Published)\PDF (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>АС</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11_СтадияР (Shared+Published)\CAD (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>КМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11_СтадияР (Shared+Published)\CAD (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>КЖ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11_СтадияР (Shared+Published)\CAD (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>АС</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11_СтадияР (Shared+Published)\BIM (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>КМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11_СтадияР (Shared+Published)\BIM (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>КЖ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11_СтадияР (Shared+Published)\BIM (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>АС</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10_СтадияП (Shared+Published)\PDF (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ЭМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10_СтадияП (Shared+Published)\PDF (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>СС</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10_СтадияП (Shared+Published)\PDF (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>КР</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10_СтадияП (Shared+Published)\PDF (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ГП</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10_СтадияП (Shared+Published)\PDF (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ВК</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10_СтадияП (Shared+Published)\PDF (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>АР</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10_СтадияП (Shared+Published)\CAD (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ЭМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10_СтадияП (Shared+Published)\CAD (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>СС</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10_СтадияП (Shared+Published)\CAD (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ОВ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10_СтадияП (Shared+Published)\CAD (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>КР</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10_СтадияП (Shared+Published)\CAD (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ГП</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10_СтадияП (Shared+Published)\CAD (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ВК</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10_СтадияП (Shared+Published)\CAD (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>АР</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10_СтадияП (Shared+Published)\BIM (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>АР</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10_СтадияП (Shared+Published)\BIM (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ВК</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10_СтадияП (Shared+Published)\BIM (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ГП</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10_СтадияП (Shared+Published)\BIM (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>КР</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10_СтадияП (Shared+Published)\BIM (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ОВ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10_СтадияП (Shared+Published)\BIM (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>СС</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10_СтадияП (Shared+Published)\BIM (Shared)\</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ЭМ</t>
     </r>
   </si>
   <si>
@@ -1728,6 +1076,126 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>10_СтадияП (Shared &amp; Published)</t>
+  </si>
+  <si>
+    <t>10_СтадияП (Shared &amp; Published)\BIM (Shared)</t>
+  </si>
+  <si>
+    <t>10_СтадияП (Shared &amp; Published)\BIM (Shared)\АР</t>
+  </si>
+  <si>
+    <t>10_СтадияП (Shared &amp; Published)\BIM (Shared)\ВК</t>
+  </si>
+  <si>
+    <t>10_СтадияП (Shared &amp; Published)\BIM (Shared)\ГП</t>
+  </si>
+  <si>
+    <t>10_СтадияП (Shared &amp; Published)\BIM (Shared)\КР</t>
+  </si>
+  <si>
+    <t>10_СтадияП (Shared &amp; Published)\BIM (Shared)\ОВ</t>
+  </si>
+  <si>
+    <t>10_СтадияП (Shared &amp; Published)\BIM (Shared)\СС</t>
+  </si>
+  <si>
+    <t>10_СтадияП (Shared &amp; Published)\BIM (Shared)\ЭМ</t>
+  </si>
+  <si>
+    <t>10_СтадияП (Shared &amp; Published)\CAD (Shared)</t>
+  </si>
+  <si>
+    <t>10_СтадияП (Shared &amp; Published)\CAD (Shared)\АР</t>
+  </si>
+  <si>
+    <t>10_СтадияП (Shared &amp; Published)\CAD (Shared)\ВК</t>
+  </si>
+  <si>
+    <t>10_СтадияП (Shared &amp; Published)\CAD (Shared)\ГП</t>
+  </si>
+  <si>
+    <t>10_СтадияП (Shared &amp; Published)\CAD (Shared)\КР</t>
+  </si>
+  <si>
+    <t>10_СтадияП (Shared &amp; Published)\CAD (Shared)\ОВ</t>
+  </si>
+  <si>
+    <t>10_СтадияП (Shared &amp; Published)\CAD (Shared)\СС</t>
+  </si>
+  <si>
+    <t>10_СтадияП (Shared &amp; Published)\CAD (Shared)\ЭМ</t>
+  </si>
+  <si>
+    <t>10_СтадияП (Shared &amp; Published)\PDF (Shared)</t>
+  </si>
+  <si>
+    <t>10_СтадияП (Shared &amp; Published)\PDF (Shared)\АР</t>
+  </si>
+  <si>
+    <t>10_СтадияП (Shared &amp; Published)\PDF (Shared)\ВК</t>
+  </si>
+  <si>
+    <t>10_СтадияП (Shared &amp; Published)\PDF (Shared)\ГП</t>
+  </si>
+  <si>
+    <t>10_СтадияП (Shared &amp; Published)\PDF (Shared)\КР</t>
+  </si>
+  <si>
+    <t>10_СтадияП (Shared &amp; Published)\PDF (Shared)\ОВ</t>
+  </si>
+  <si>
+    <t>10_СтадияП (Shared &amp; Published)\PDF (Shared)\СС</t>
+  </si>
+  <si>
+    <t>10_СтадияП (Shared &amp; Published)\PDF (Shared)\ЭМ</t>
+  </si>
+  <si>
+    <t>10_СтадияП (Shared &amp; Published)\Экспертиза (Published)</t>
+  </si>
+  <si>
+    <t>11_СтадияР (Shared &amp; Published)</t>
+  </si>
+  <si>
+    <t>11_СтадияР (Shared &amp; Published)\BIM (Shared)</t>
+  </si>
+  <si>
+    <t>11_СтадияР (Shared &amp; Published)\BIM (Shared)\АС</t>
+  </si>
+  <si>
+    <t>11_СтадияР (Shared &amp; Published)\BIM (Shared)\КЖ</t>
+  </si>
+  <si>
+    <t>11_СтадияР (Shared &amp; Published)\BIM (Shared)\КМ</t>
+  </si>
+  <si>
+    <t>11_СтадияР (Shared &amp; Published)\CAD (Shared)</t>
+  </si>
+  <si>
+    <t>11_СтадияР (Shared &amp; Published)\CAD (Shared)\АС</t>
+  </si>
+  <si>
+    <t>11_СтадияР (Shared &amp; Published)\CAD (Shared)\КЖ</t>
+  </si>
+  <si>
+    <t>11_СтадияР (Shared &amp; Published)\CAD (Shared)\КМ</t>
+  </si>
+  <si>
+    <t>11_СтадияР (Shared &amp; Published)\PDF (Shared)</t>
+  </si>
+  <si>
+    <t>11_СтадияР (Shared &amp; Published)\PDF (Shared)\АС</t>
+  </si>
+  <si>
+    <t>11_СтадияР (Shared &amp; Published)\PDF (Shared)\КЖ</t>
+  </si>
+  <si>
+    <t>11_СтадияР (Shared &amp; Published)\PDF (Shared)\КМ</t>
+  </si>
+  <si>
+    <t>11_СтадияР (Shared &amp; Published)\Выдано (Published)</t>
   </si>
 </sst>
 </file>
@@ -2297,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2310,29 +1778,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="11" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="262.5" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2340,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2351,10 +1819,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2362,22 +1830,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -2387,10 +1855,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2398,10 +1866,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2409,10 +1877,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2420,10 +1888,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2431,10 +1899,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -2442,767 +1910,767 @@
         <v>8</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="12" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="12" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="12" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="12" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="12" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="12" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C54" s="12"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C62" s="12"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B65" s="14"/>
       <c r="C65" s="12"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B66" s="14"/>
       <c r="C66" s="12"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B67" s="14"/>
       <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B68" s="14"/>
       <c r="C68" s="12"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B69" s="14"/>
       <c r="C69" s="12"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C70" s="12"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B72" s="14"/>
       <c r="C72" s="12"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B73" s="14"/>
       <c r="C73" s="12"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B74" s="14"/>
       <c r="C74" s="12"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="B75" s="14"/>
       <c r="C75" s="12"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B76" s="14"/>
       <c r="C76" s="12"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B77" s="14"/>
       <c r="C77" s="12"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C78" s="12"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C80" s="12"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C81" s="12"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C82" s="12"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C83" s="12"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C84" s="12"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C85" s="12"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C86" s="12"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C87" s="12"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C88" s="12"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C89" s="12"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C90" s="12"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C91" s="12"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C92" s="12"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
     </row>
     <row r="101" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>

--- a/DirsAccessFromExcele/ExcelSample/ПраваДоступаОбразец.xlsx
+++ b/DirsAccessFromExcele/ExcelSample/ПраваДоступаОбразец.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="118">
   <si>
     <t>1_Договор</t>
   </si>
@@ -830,6 +830,9 @@
     </r>
   </si>
   <si>
+    <t>koval.mi</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -845,20 +848,44 @@
     <t>BIM</t>
   </si>
   <si>
-    <t>BIM-Координаторы</t>
-  </si>
-  <si>
     <t>АР</t>
   </si>
   <si>
     <t>Исполнители</t>
   </si>
   <si>
-    <t>ivanov.ii;
-pavlov.aa</t>
-  </si>
-  <si>
-    <t>ivanov.vv</t>
+    <t>hirvi.ea;
+klychnikov.sa</t>
+  </si>
+  <si>
+    <t>СПЗ</t>
+  </si>
+  <si>
+    <t>ГИП</t>
+  </si>
+  <si>
+    <t>Bim-координаторы</t>
+  </si>
+  <si>
+    <t>Рук.Группы</t>
+  </si>
+  <si>
+    <t>КР</t>
+  </si>
+  <si>
+    <t>ОВ</t>
+  </si>
+  <si>
+    <t>ВК</t>
+  </si>
+  <si>
+    <t>ЭОМ</t>
+  </si>
+  <si>
+    <t>СС</t>
+  </si>
+  <si>
+    <t>ГП</t>
   </si>
   <si>
     <r>
@@ -886,7 +913,30 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>" - доступ на редактирование (применяется всегда для этой папки, ее подпапок и файлов);
+      <t xml:space="preserve">" - доступ на редактирование (применяется всегда для этой папки, ее подпапок и файлов); (Использовать, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>только если папка является вершиной древовидной структуры!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
 "</t>
     </r>
     <r>
@@ -981,54 +1031,78 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">).
-Имена пользователей писать в формате </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ivanov.aa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, в качестве разделителя</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> использовать </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
+      <t xml:space="preserve">)
+Между столюцами с именами пользователей </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>не должно быть пустых клеток</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - столбцы без прав доступа удалить.
+Имена пользователей писать в формате '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ivanov.ii</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'. Для нескольких имен в одной ячейке </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>разделять их</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '</t>
     </r>
     <r>
       <rPr>
@@ -1051,30 +1125,44 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">' и переносить имена при помощи </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alt + Enter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
+      <t xml:space="preserve">' и нажимать </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Alt+Enter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">для переноса строки. Пробелы не использовать.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Фамилии должны писаться в 3 строке,
+начиная со столбца B.</t>
     </r>
   </si>
   <si>
@@ -1237,7 +1325,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1267,10 +1355,8 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1282,7 +1368,9 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1298,67 +1386,371 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="10"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="10"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1376,16 +1768,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1763,919 +2145,2907 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="3" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="69.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18"/>
+      <c r="B1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="32"/>
+      <c r="H1" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="32"/>
+      <c r="J1" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="32"/>
+      <c r="L1" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="32"/>
+      <c r="N1" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="32"/>
+      <c r="P1" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+    </row>
+    <row r="2" spans="1:20" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="33" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="262.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="E2" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+    </row>
+    <row r="3" spans="1:20" ht="375.75" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="40"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="B4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="B5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q5" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="B9" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="B10" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="B11" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="B12" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="B13" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="O13" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B14" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="1"/>
+      <c r="J18" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="1"/>
+      <c r="P19" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="1"/>
+      <c r="F20" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="1"/>
+      <c r="H21" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="1"/>
+      <c r="N22" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="O22" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="1"/>
+      <c r="L23" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="O24" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q24" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A26" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="1"/>
+      <c r="J26" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A27" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="1"/>
+      <c r="P27" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A28" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="1"/>
+      <c r="F28" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A29" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="B29" s="15"/>
+      <c r="C29" s="1"/>
+      <c r="H29" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A30" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="1"/>
+      <c r="N30" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="O30" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A31" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="1"/>
+      <c r="L31" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="M31" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A32" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="B32" s="15"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="L32" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="M32" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="N32" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="O32" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q32" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A33" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="B33" s="15"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A34" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="B34" s="15"/>
+      <c r="C34" s="1"/>
+      <c r="J34" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="K34" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A35" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="B35" s="15"/>
+      <c r="C35" s="1"/>
+      <c r="P35" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q35" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A36" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="B36" s="15"/>
+      <c r="C36" s="1"/>
+      <c r="F36" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A37" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="B37" s="15"/>
+      <c r="C37" s="1"/>
+      <c r="H37" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="I37" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A38" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="B38" s="15"/>
+      <c r="C38" s="1"/>
+      <c r="N38" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="O38" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A39" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="B39" s="15"/>
+      <c r="C39" s="1"/>
+      <c r="L39" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="M39" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="B40" s="15"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I40" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J40" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="K40" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="L40" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="M40" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="N40" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="O40" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q40" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A41" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="B41" s="15"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H41" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J41" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="K41" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="L41" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="M41" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="N41" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="O41" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q41" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A42" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="B42" s="15"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A43" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="B43" s="15"/>
+      <c r="C43" s="1"/>
+      <c r="F43" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A44" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="B44" s="15"/>
+      <c r="C44" s="1"/>
+      <c r="F44" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A45" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="B45" s="15"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I45" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J45" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="N45" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="O45" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A46" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="B46" s="15"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A47" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="B47" s="15"/>
+      <c r="C47" s="1"/>
+      <c r="F47" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A48" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="B48" s="15"/>
+      <c r="C48" s="1"/>
+      <c r="F48" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A49" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+      <c r="B49" s="15"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I49" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J49" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="K49" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="L49" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="M49" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="N49" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="O49" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q49" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A50" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="B50" s="15"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A51" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="B51" s="15"/>
+      <c r="C51" s="1"/>
+      <c r="F51" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G51" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A52" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="12"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
+      <c r="B52" s="15"/>
+      <c r="C52" s="1"/>
+      <c r="F52" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="12"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
+      <c r="B53" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G53" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H53" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I53" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J53" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="K53" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="L53" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="M53" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="N53" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="O53" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q53" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
+      <c r="B54" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="E54" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="I54" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="K54" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="M54" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="O54" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q54" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A55" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="12"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
+      <c r="B55" s="15"/>
+      <c r="C55" s="1"/>
+      <c r="E55" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I55" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K55" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M55" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O55" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q55" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A56" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="12"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
+      <c r="B56" s="15"/>
+      <c r="C56" s="1"/>
+      <c r="E56" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G56" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I56" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K56" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="M56" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O56" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q56" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A57" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="12"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
+      <c r="B57" s="15"/>
+      <c r="C57" s="1"/>
+      <c r="E57" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G57" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I57" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K57" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M57" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O57" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q57" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A58" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="12"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
+      <c r="B58" s="15"/>
+      <c r="C58" s="1"/>
+      <c r="E58" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G58" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I58" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K58" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M58" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O58" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q58" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A59" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="12"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
+      <c r="B59" s="15"/>
+      <c r="C59" s="1"/>
+      <c r="E59" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G59" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I59" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="K59" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M59" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O59" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q59" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A60" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="12"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
+      <c r="B60" s="15"/>
+      <c r="C60" s="1"/>
+      <c r="E60" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G60" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I60" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K60" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M60" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O60" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q60" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A61" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B70" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C70" s="12"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
+      <c r="B61" s="15"/>
+      <c r="C61" s="1"/>
+      <c r="E61" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G61" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I61" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K61" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M61" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="O61" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q61" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
+      <c r="B62" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="E62" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G62" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="I62" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="K62" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="M62" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="O62" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q62" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A63" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="12"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
+      <c r="B63" s="15"/>
+      <c r="C63" s="1"/>
+      <c r="E63" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I63" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K63" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M63" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O63" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q63" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A64" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="12"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
+      <c r="B64" s="15"/>
+      <c r="C64" s="1"/>
+      <c r="E64" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G64" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I64" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K64" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="M64" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O64" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q64" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A65" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="12"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
+      <c r="B65" s="15"/>
+      <c r="C65" s="1"/>
+      <c r="E65" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G65" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I65" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K65" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M65" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O65" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q65" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A66" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="12"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
+      <c r="B66" s="15"/>
+      <c r="C66" s="1"/>
+      <c r="E66" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G66" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I66" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K66" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M66" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O66" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q66" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A67" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="12"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
+      <c r="B67" s="15"/>
+      <c r="C67" s="1"/>
+      <c r="E67" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G67" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I67" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="K67" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M67" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O67" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q67" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A68" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="12"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
+      <c r="B68" s="15"/>
+      <c r="C68" s="1"/>
+      <c r="E68" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G68" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I68" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K68" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M68" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O68" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q68" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A69" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B78" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C78" s="12"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="10" t="s">
+      <c r="B69" s="15"/>
+      <c r="C69" s="1"/>
+      <c r="E69" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G69" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I69" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K69" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M69" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="O69" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q69" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B79" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
+      <c r="B70" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="E70" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G70" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="I70" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="K70" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="M70" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="O70" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q70" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A71" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B80" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C80" s="12"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
+      <c r="B71" s="15"/>
+      <c r="C71" s="1"/>
+      <c r="E71" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G71" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I71" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K71" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M71" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O71" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q71" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A72" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B81" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C81" s="12"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
+      <c r="B72" s="15"/>
+      <c r="C72" s="1"/>
+      <c r="E72" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G72" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I72" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K72" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="M72" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O72" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q72" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A73" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B82" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C82" s="12"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
+      <c r="B73" s="15"/>
+      <c r="C73" s="1"/>
+      <c r="E73" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G73" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I73" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K73" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M73" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O73" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q73" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A74" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B83" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83" s="12"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
+      <c r="B74" s="15"/>
+      <c r="C74" s="1"/>
+      <c r="E74" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G74" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I74" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K74" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M74" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O74" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q74" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A75" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B84" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C84" s="12"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
+      <c r="B75" s="15"/>
+      <c r="C75" s="1"/>
+      <c r="E75" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G75" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I75" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="K75" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M75" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O75" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q75" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A76" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B85" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C85" s="12"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
+      <c r="B76" s="15"/>
+      <c r="C76" s="1"/>
+      <c r="E76" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G76" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I76" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K76" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M76" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O76" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q76" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A77" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B86" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C86" s="12"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="s">
+      <c r="B77" s="15"/>
+      <c r="C77" s="1"/>
+      <c r="E77" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G77" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I77" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K77" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M77" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="O77" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q77" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B87" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C87" s="12"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
+      <c r="B78" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="E78" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G78" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I78" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="K78" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="M78" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="O78" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q78" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="B88" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C88" s="12"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
+      <c r="B79" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E79" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F79" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G79" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H79" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I79" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J79" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="K79" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="L79" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="M79" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="N79" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="O79" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P79" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q79" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C89" s="12"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
+      <c r="B80" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="E80" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G80" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="I80" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="K80" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="M80" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="O80" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q80" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A81" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B90" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C90" s="12"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
+      <c r="B81" s="15"/>
+      <c r="C81" s="1"/>
+      <c r="E81" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G81" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I81" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K81" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M81" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O81" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q81" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A82" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B91" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C91" s="12"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
+      <c r="B82" s="15"/>
+      <c r="C82" s="1"/>
+      <c r="E82" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G82" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I82" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K82" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M82" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O82" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q82" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A83" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B92" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C92" s="12"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="10" t="s">
+      <c r="B83" s="15"/>
+      <c r="C83" s="1"/>
+      <c r="E83" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G83" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I83" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K83" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M83" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O83" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q83" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="E84" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G84" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="I84" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="K84" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="M84" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="O84" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q84" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A85" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B85" s="15"/>
+      <c r="C85" s="1"/>
+      <c r="E85" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G85" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I85" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K85" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M85" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O85" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q85" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A86" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="15"/>
+      <c r="C86" s="1"/>
+      <c r="E86" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G86" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I86" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K86" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M86" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O86" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q86" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A87" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87" s="15"/>
+      <c r="C87" s="1"/>
+      <c r="E87" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G87" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I87" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K87" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M87" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O87" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q87" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="E88" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G88" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="I88" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="K88" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="M88" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="O88" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q88" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A89" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89" s="15"/>
+      <c r="C89" s="1"/>
+      <c r="E89" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G89" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I89" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K89" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M89" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O89" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q89" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A90" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90" s="15"/>
+      <c r="C90" s="1"/>
+      <c r="E90" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G90" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I90" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K90" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M90" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O90" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q90" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A91" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" s="15"/>
+      <c r="C91" s="1"/>
+      <c r="E91" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G91" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I91" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K91" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M91" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O91" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q91" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="E92" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G92" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I92" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="K92" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="M92" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="O92" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q92" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A93" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B93" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="8" t="s">
+      <c r="B93" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E93" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F93" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G93" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="H93" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I93" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J93" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="K93" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="L93" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="M93" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="N93" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="O93" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P93" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q93" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A94" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
+      <c r="B94" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E94" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F94" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G94" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H94" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I94" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="J94" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="K94" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="L94" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="M94" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="N94" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="O94" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="P94" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q94" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
+      <c r="B95" s="15"/>
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="s">
+      <c r="B96" s="15"/>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="10" t="s">
+      <c r="B97" s="15"/>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A98" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B98" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="10" t="s">
+      <c r="B98" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D98" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E98" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F98" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G98" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="H98" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I98" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J98" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="K98" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="L98" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="M98" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="N98" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="O98" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P98" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q98" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A99" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B99" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
+      <c r="B99" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D99" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E99" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F99" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G99" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="H99" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I99" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J99" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="K99" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="L99" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="M99" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="N99" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="O99" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P99" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q99" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="28" t="s">
         <v>57</v>
       </c>
       <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-    </row>
-    <row r="101" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="7" t="s">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="1:17" ht="19.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="33"/>
+      <c r="G101" s="34"/>
+      <c r="H101" s="33"/>
+      <c r="I101" s="34"/>
+      <c r="J101" s="33"/>
+      <c r="K101" s="34"/>
+      <c r="L101" s="33"/>
+      <c r="M101" s="34"/>
+      <c r="N101" s="33"/>
+      <c r="O101" s="34"/>
+      <c r="P101" s="33"/>
+      <c r="Q101" s="34"/>
+    </row>
+    <row r="102" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="37"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="40"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="40"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="40"/>
+      <c r="J102" s="39"/>
+      <c r="K102" s="40"/>
+      <c r="L102" s="39"/>
+      <c r="M102" s="40"/>
+      <c r="N102" s="39"/>
+      <c r="O102" s="40"/>
+      <c r="P102" s="39"/>
+      <c r="Q102" s="40"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+  </mergeCells>
   <conditionalFormatting sqref="A4:A101">
     <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"Р"</formula>
@@ -2718,13 +5088,13 @@
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Р"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Ч"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DirsAccessFromExcele/ExcelSample/ПраваДоступаОбразец.xlsx
+++ b/DirsAccessFromExcele/ExcelSample/ПраваДоступаОбразец.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="151">
   <si>
     <t>1_Договор</t>
   </si>
@@ -2737,16 +2737,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3127,10 +3127,10 @@
   <dimension ref="A1:T138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="3" x14ac:dyDescent="0.3"/>
@@ -3159,37 +3159,37 @@
       <c r="B1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="43" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="43" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="43" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="44"/>
+      <c r="N1" s="42"/>
       <c r="O1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="44"/>
+      <c r="Q1" s="42"/>
       <c r="R1" s="34" t="s">
         <v>74</v>
       </c>
@@ -3726,11 +3726,9 @@
       <c r="B14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>49</v>
-      </c>
+      <c r="C14" s="25"/>
       <c r="D14" s="26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>49</v>
@@ -3780,12 +3778,8 @@
         <v>15</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="25" t="s">
         <v>49</v>
       </c>
@@ -3834,12 +3828,8 @@
         <v>16</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>49</v>
-      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="25" t="s">
         <v>49</v>
       </c>
@@ -4001,12 +3991,8 @@
         <v>24</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>49</v>
-      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="25" t="s">
         <v>49</v>
       </c>
@@ -4168,12 +4154,8 @@
         <v>32</v>
       </c>
       <c r="B34" s="8"/>
-      <c r="C34" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>49</v>
-      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="25" t="s">
         <v>49</v>
       </c>
@@ -4335,12 +4317,8 @@
         <v>40</v>
       </c>
       <c r="B43" s="8"/>
-      <c r="C43" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>49</v>
-      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="25" t="s">
         <v>49</v>
       </c>
@@ -4389,12 +4367,8 @@
         <v>41</v>
       </c>
       <c r="B44" s="8"/>
-      <c r="C44" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>49</v>
-      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="26"/>
       <c r="E44" s="25" t="s">
         <v>49</v>
       </c>
@@ -4556,12 +4530,8 @@
         <v>42</v>
       </c>
       <c r="B53" s="8"/>
-      <c r="C53" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>49</v>
-      </c>
+      <c r="C53" s="25"/>
+      <c r="D53" s="26"/>
       <c r="E53" s="25" t="s">
         <v>49</v>
       </c>
@@ -4723,12 +4693,8 @@
         <v>43</v>
       </c>
       <c r="B62" s="8"/>
-      <c r="C62" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>49</v>
-      </c>
+      <c r="C62" s="25"/>
+      <c r="D62" s="26"/>
       <c r="E62" s="25" t="s">
         <v>49</v>
       </c>
@@ -4950,7 +4916,7 @@
       </c>
       <c r="C72" s="25"/>
       <c r="D72" s="26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F72" s="26" t="s">
         <v>49</v>
@@ -4983,9 +4949,7 @@
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="25"/>
-      <c r="D73" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D73" s="26"/>
       <c r="F73" s="26" t="s">
         <v>50</v>
       </c>
@@ -5017,9 +4981,7 @@
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="25"/>
-      <c r="D74" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D74" s="26"/>
       <c r="F74" s="26" t="s">
         <v>51</v>
       </c>
@@ -5051,9 +5013,7 @@
       </c>
       <c r="B75" s="8"/>
       <c r="C75" s="25"/>
-      <c r="D75" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D75" s="26"/>
       <c r="F75" s="26" t="s">
         <v>51</v>
       </c>
@@ -5085,9 +5045,7 @@
       </c>
       <c r="B76" s="8"/>
       <c r="C76" s="25"/>
-      <c r="D76" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D76" s="26"/>
       <c r="F76" s="26" t="s">
         <v>51</v>
       </c>
@@ -5119,9 +5077,7 @@
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="25"/>
-      <c r="D77" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D77" s="26"/>
       <c r="F77" s="26" t="s">
         <v>51</v>
       </c>
@@ -5153,9 +5109,7 @@
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="25"/>
-      <c r="D78" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D78" s="26"/>
       <c r="F78" s="26" t="s">
         <v>51</v>
       </c>
@@ -5187,9 +5141,7 @@
       </c>
       <c r="B79" s="8"/>
       <c r="C79" s="25"/>
-      <c r="D79" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D79" s="26"/>
       <c r="F79" s="26" t="s">
         <v>51</v>
       </c>
@@ -5221,9 +5173,7 @@
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="25"/>
-      <c r="D80" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D80" s="26"/>
       <c r="F80" s="26" t="s">
         <v>51</v>
       </c>
@@ -5258,7 +5208,7 @@
       </c>
       <c r="C81" s="25"/>
       <c r="D81" s="26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F81" s="26" t="s">
         <v>49</v>
@@ -5291,9 +5241,7 @@
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="25"/>
-      <c r="D82" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D82" s="26"/>
       <c r="F82" s="26" t="s">
         <v>50</v>
       </c>
@@ -5325,9 +5273,7 @@
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="25"/>
-      <c r="D83" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D83" s="26"/>
       <c r="F83" s="26" t="s">
         <v>51</v>
       </c>
@@ -5359,9 +5305,7 @@
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="25"/>
-      <c r="D84" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D84" s="26"/>
       <c r="F84" s="26" t="s">
         <v>51</v>
       </c>
@@ -5393,9 +5337,7 @@
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="25"/>
-      <c r="D85" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D85" s="26"/>
       <c r="F85" s="26" t="s">
         <v>51</v>
       </c>
@@ -5427,9 +5369,7 @@
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="25"/>
-      <c r="D86" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D86" s="26"/>
       <c r="F86" s="26" t="s">
         <v>51</v>
       </c>
@@ -5461,9 +5401,7 @@
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="25"/>
-      <c r="D87" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D87" s="26"/>
       <c r="F87" s="26" t="s">
         <v>51</v>
       </c>
@@ -5495,9 +5433,7 @@
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="25"/>
-      <c r="D88" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D88" s="26"/>
       <c r="F88" s="26" t="s">
         <v>51</v>
       </c>
@@ -5529,9 +5465,7 @@
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="25"/>
-      <c r="D89" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D89" s="26"/>
       <c r="F89" s="26" t="s">
         <v>51</v>
       </c>
@@ -5566,7 +5500,7 @@
       </c>
       <c r="C90" s="25"/>
       <c r="D90" s="26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F90" s="26" t="s">
         <v>49</v>
@@ -5599,9 +5533,7 @@
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="25"/>
-      <c r="D91" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D91" s="26"/>
       <c r="F91" s="26" t="s">
         <v>50</v>
       </c>
@@ -5633,9 +5565,7 @@
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="25"/>
-      <c r="D92" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D92" s="26"/>
       <c r="F92" s="26" t="s">
         <v>51</v>
       </c>
@@ -5667,9 +5597,7 @@
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="25"/>
-      <c r="D93" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D93" s="26"/>
       <c r="F93" s="26" t="s">
         <v>51</v>
       </c>
@@ -5701,9 +5629,7 @@
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="25"/>
-      <c r="D94" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D94" s="26"/>
       <c r="F94" s="26" t="s">
         <v>51</v>
       </c>
@@ -5735,9 +5661,7 @@
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="25"/>
-      <c r="D95" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D95" s="26"/>
       <c r="F95" s="26" t="s">
         <v>51</v>
       </c>
@@ -5769,9 +5693,7 @@
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="25"/>
-      <c r="D96" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D96" s="26"/>
       <c r="F96" s="26" t="s">
         <v>51</v>
       </c>
@@ -5803,9 +5725,7 @@
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="25"/>
-      <c r="D97" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D97" s="26"/>
       <c r="F97" s="26" t="s">
         <v>51</v>
       </c>
@@ -5837,9 +5757,7 @@
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="25"/>
-      <c r="D98" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D98" s="26"/>
       <c r="F98" s="26" t="s">
         <v>51</v>
       </c>
@@ -5966,7 +5884,7 @@
       </c>
       <c r="C101" s="25"/>
       <c r="D101" s="26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F101" s="26" t="s">
         <v>49</v>
@@ -5999,9 +5917,7 @@
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="25"/>
-      <c r="D102" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D102" s="26"/>
       <c r="F102" s="26" t="s">
         <v>50</v>
       </c>
@@ -6033,9 +5949,7 @@
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="25"/>
-      <c r="D103" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D103" s="26"/>
       <c r="F103" s="26" t="s">
         <v>51</v>
       </c>
@@ -6067,9 +5981,7 @@
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="25"/>
-      <c r="D104" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D104" s="26"/>
       <c r="F104" s="26" t="s">
         <v>51</v>
       </c>
@@ -6101,9 +6013,7 @@
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="25"/>
-      <c r="D105" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D105" s="26"/>
       <c r="F105" s="26" t="s">
         <v>51</v>
       </c>
@@ -6135,9 +6045,7 @@
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="25"/>
-      <c r="D106" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D106" s="26"/>
       <c r="F106" s="26" t="s">
         <v>51</v>
       </c>
@@ -6169,9 +6077,7 @@
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="25"/>
-      <c r="D107" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D107" s="26"/>
       <c r="F107" s="26" t="s">
         <v>51</v>
       </c>
@@ -6203,9 +6109,7 @@
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="25"/>
-      <c r="D108" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D108" s="26"/>
       <c r="F108" s="26" t="s">
         <v>51</v>
       </c>
@@ -6237,9 +6141,7 @@
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="25"/>
-      <c r="D109" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D109" s="26"/>
       <c r="F109" s="26" t="s">
         <v>51</v>
       </c>
@@ -6274,7 +6176,7 @@
       </c>
       <c r="C110" s="25"/>
       <c r="D110" s="26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F110" s="26" t="s">
         <v>49</v>
@@ -6307,9 +6209,7 @@
       </c>
       <c r="B111" s="8"/>
       <c r="C111" s="25"/>
-      <c r="D111" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D111" s="26"/>
       <c r="F111" s="26" t="s">
         <v>50</v>
       </c>
@@ -6341,9 +6241,7 @@
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="25"/>
-      <c r="D112" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D112" s="26"/>
       <c r="F112" s="26" t="s">
         <v>51</v>
       </c>
@@ -6375,9 +6273,7 @@
       </c>
       <c r="B113" s="8"/>
       <c r="C113" s="25"/>
-      <c r="D113" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D113" s="26"/>
       <c r="F113" s="26" t="s">
         <v>51</v>
       </c>
@@ -6409,9 +6305,7 @@
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="25"/>
-      <c r="D114" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D114" s="26"/>
       <c r="F114" s="26" t="s">
         <v>51</v>
       </c>
@@ -6443,9 +6337,7 @@
       </c>
       <c r="B115" s="8"/>
       <c r="C115" s="25"/>
-      <c r="D115" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D115" s="26"/>
       <c r="F115" s="26" t="s">
         <v>51</v>
       </c>
@@ -6477,9 +6369,7 @@
       </c>
       <c r="B116" s="8"/>
       <c r="C116" s="25"/>
-      <c r="D116" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D116" s="26"/>
       <c r="F116" s="26" t="s">
         <v>51</v>
       </c>
@@ -6511,9 +6401,7 @@
       </c>
       <c r="B117" s="8"/>
       <c r="C117" s="25"/>
-      <c r="D117" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D117" s="26"/>
       <c r="F117" s="26" t="s">
         <v>51</v>
       </c>
@@ -6545,9 +6433,7 @@
       </c>
       <c r="B118" s="8"/>
       <c r="C118" s="25"/>
-      <c r="D118" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D118" s="26"/>
       <c r="F118" s="26" t="s">
         <v>51</v>
       </c>
@@ -6582,7 +6468,7 @@
       </c>
       <c r="C119" s="25"/>
       <c r="D119" s="26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F119" s="26" t="s">
         <v>49</v>
@@ -6615,9 +6501,7 @@
       </c>
       <c r="B120" s="8"/>
       <c r="C120" s="25"/>
-      <c r="D120" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D120" s="26"/>
       <c r="F120" s="26" t="s">
         <v>50</v>
       </c>
@@ -6649,9 +6533,7 @@
       </c>
       <c r="B121" s="8"/>
       <c r="C121" s="25"/>
-      <c r="D121" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D121" s="26"/>
       <c r="F121" s="26" t="s">
         <v>51</v>
       </c>
@@ -6683,9 +6565,7 @@
       </c>
       <c r="B122" s="8"/>
       <c r="C122" s="25"/>
-      <c r="D122" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D122" s="26"/>
       <c r="F122" s="26" t="s">
         <v>51</v>
       </c>
@@ -6717,9 +6597,7 @@
       </c>
       <c r="B123" s="8"/>
       <c r="C123" s="25"/>
-      <c r="D123" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D123" s="26"/>
       <c r="F123" s="26" t="s">
         <v>51</v>
       </c>
@@ -6751,9 +6629,7 @@
       </c>
       <c r="B124" s="8"/>
       <c r="C124" s="25"/>
-      <c r="D124" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D124" s="26"/>
       <c r="F124" s="26" t="s">
         <v>51</v>
       </c>
@@ -6785,9 +6661,7 @@
       </c>
       <c r="B125" s="8"/>
       <c r="C125" s="25"/>
-      <c r="D125" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D125" s="26"/>
       <c r="F125" s="26" t="s">
         <v>51</v>
       </c>
@@ -6819,9 +6693,7 @@
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="25"/>
-      <c r="D126" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D126" s="26"/>
       <c r="F126" s="26" t="s">
         <v>51</v>
       </c>
@@ -6853,9 +6725,7 @@
       </c>
       <c r="B127" s="8"/>
       <c r="C127" s="25"/>
-      <c r="D127" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="D127" s="26"/>
       <c r="F127" s="26" t="s">
         <v>51</v>
       </c>
@@ -6890,31 +6760,31 @@
       </c>
       <c r="C128" s="25"/>
       <c r="D128" s="26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F128" s="26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H128" s="26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J128" s="26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L128" s="26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N128" s="26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O128" s="26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q128" s="26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R128" s="26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.3">
